--- a/nodejs/uploads/test.xlsx
+++ b/nodejs/uploads/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakdahomhuan/Dev/engrids_score/nodejs/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF25CF68-0476-DD43-AF0D-0CAD76470F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4B11C3-E60F-A144-AF8D-6B493D5C263B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29760" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>รายชื่อนักศึกษาที่ลงทะเบียนเรียน ภาคเรียนที่ 2 ปีการศึกษา 2565</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>เก็บย่อย</t>
+  </si>
+  <si>
+    <t>วริสรา</t>
+  </si>
+  <si>
+    <t>เก็บ1</t>
   </si>
 </sst>
 </file>
@@ -597,8 +603,8 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -718,8 +724,8 @@
         <v>14</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="5">
-        <v>1</v>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
@@ -1043,12 +1049,14 @@
       <c r="A21" s="7">
         <v>13</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7">
+        <v>590410061</v>
+      </c>
       <c r="C21" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9"/>
